--- a/DataLog.xlsx
+++ b/DataLog.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-32960" yWindow="2380" windowWidth="28040" windowHeight="17440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -433,10 +433,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="A6" sqref="A6:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -511,6 +511,134 @@
         <v>123</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>fesfe</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>test2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>test4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>23</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>test24</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>test12</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>23</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>testFinal</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>new Pahse</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>123</v>
+      </c>
+      <c r="D11" t="n">
+        <v>34.34</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>otr</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DataLog.xlsx
+++ b/DataLog.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:E8"/>
@@ -639,6 +639,22 @@
         <v>1.2</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>test2</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>12</v>
+      </c>
+      <c r="D13" t="n">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DataLog.xlsx
+++ b/DataLog.xlsx
@@ -433,10 +433,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:E8"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -501,158 +501,30 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>water 2</t>
+          <t>fluid2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>123</v>
+        <v>800</v>
       </c>
       <c r="D4" t="n">
-        <v>123</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>fesfe</t>
+          <t>Test2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>test2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>test4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>23</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>test24</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>3</v>
-      </c>
-      <c r="D8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>test12</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>23</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>testFinal</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>2</v>
-      </c>
-      <c r="D10" t="n">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>new Pahse</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
         <v>123</v>
-      </c>
-      <c r="D11" t="n">
-        <v>34.34</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>otr</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>test2</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>12</v>
-      </c>
-      <c r="D13" t="n">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
